--- a/PELCO I/Historical_PELCO_I_GC_Breakdown.xlsx
+++ b/PELCO I/Historical_PELCO_I_GC_Breakdown.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,10 +452,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Generation Charge</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Power Supplier ID</t>
         </is>
@@ -469,12 +474,13 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>5.3217</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -496,10 +502,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>5.3217</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -511,12 +522,13 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>5.6735</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -538,10 +550,15 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>5.6735</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -553,12 +570,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>4.2312</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -580,10 +598,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>4.2312</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>2</v>
       </c>
     </row>
@@ -595,12 +618,13 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>4.2578</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -622,10 +646,15 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>4.2578</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -647,10 +676,15 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>35.8%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>7.5796</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -672,10 +706,15 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>64.1%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>7.5796</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,10 +736,15 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>7.5796</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -712,12 +756,13 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>5.3766</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -739,10 +784,15 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>5.3766</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2</v>
       </c>
     </row>
@@ -754,12 +804,13 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>5.6770</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -781,10 +832,15 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>5.6770</t>
         </is>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>2</v>
       </c>
     </row>
@@ -796,12 +852,13 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>5.4182</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -823,10 +880,15 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>5.4182</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>2</v>
       </c>
     </row>
@@ -848,10 +910,15 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>38.0%</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>7.2814</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>3</v>
       </c>
     </row>
@@ -873,10 +940,15 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>61.6%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>7.2814</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -898,10 +970,15 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>7.2814</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -913,12 +990,13 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>4.0048</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -940,10 +1018,15 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>4.0048</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -965,10 +1048,15 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>38.8%</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>6.7638</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>3</v>
       </c>
     </row>
@@ -990,10 +1078,15 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>60.9%</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
           <t>6.7638</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1015,10 +1108,15 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>6.7638</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1030,12 +1128,13 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>5.0192</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1057,10 +1156,15 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>5.0192</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1072,12 +1176,13 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>5.2683</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1099,10 +1204,15 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
           <t>5.2683</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1120,10 +1230,15 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
+          <t>53.5%</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>7.5767</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1145,10 +1260,15 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>27.3%</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
           <t>7.5767</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1160,12 +1280,13 @@
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>7.5767</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1187,10 +1308,15 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>0.25%</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>7.5767</t>
         </is>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1212,10 +1338,15 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>65.53%</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>6.0996</t>
         </is>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1237,10 +1368,15 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>15.87%</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>6.0996</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1252,12 +1388,13 @@
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
         <is>
           <t>6.0996</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1279,10 +1416,15 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
           <t>6.0996</t>
         </is>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1294,12 +1436,13 @@
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
         <is>
           <t>4.2524</t>
         </is>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1321,10 +1464,15 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
           <t>4.2524</t>
         </is>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1336,12 +1484,13 @@
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
         <is>
           <t>5.1922</t>
         </is>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1363,10 +1512,15 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>5.1922</t>
         </is>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1378,12 +1532,13 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
         <is>
           <t>6.5825</t>
         </is>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1405,10 +1560,15 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
           <t>6.5825</t>
         </is>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1420,12 +1580,13 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
         <is>
           <t>4.6942</t>
         </is>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1447,10 +1608,15 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>4.6942</t>
         </is>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1472,10 +1638,15 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>52.6%</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
           <t>7.6444</t>
         </is>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1497,10 +1668,15 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>28.7%</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>7.6444</t>
         </is>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1512,12 +1688,13 @@
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
         <is>
           <t>7.6444</t>
         </is>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1539,10 +1716,15 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>7.6444</t>
         </is>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1554,12 +1736,13 @@
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
         <is>
           <t>4.8694</t>
         </is>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1581,10 +1764,15 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>4.8694</t>
         </is>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1596,12 +1784,13 @@
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
         <is>
           <t>4.9532</t>
         </is>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1623,10 +1812,15 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
           <t>4.9532</t>
         </is>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1648,10 +1842,15 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>53.39%</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
           <t>6.5436</t>
         </is>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,10 +1872,15 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>26.77%</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
           <t>6.5436</t>
         </is>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1688,12 +1892,13 @@
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
         <is>
           <t>6.5436</t>
         </is>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1715,10 +1920,15 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
           <t>6.5436</t>
         </is>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1740,10 +1950,15 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>28.6%</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
           <t>7.4982</t>
         </is>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1765,10 +1980,15 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>69.3%</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
           <t>7.4982</t>
         </is>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1786,10 +2006,15 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
+          <t>1.8%</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
           <t>7.4982</t>
         </is>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1811,10 +2036,15 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
           <t>7.4982</t>
         </is>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1826,12 +2056,13 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr">
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr">
         <is>
           <t>4.7171</t>
         </is>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1853,10 +2084,15 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
           <t>4.7171</t>
         </is>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1868,12 +2104,13 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr">
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr">
         <is>
           <t>4.6952</t>
         </is>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1895,10 +2132,15 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
           <t>4.6952</t>
         </is>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1910,12 +2152,13 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr">
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr">
         <is>
           <t>6.5812</t>
         </is>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1937,10 +2180,15 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
           <t>6.5812</t>
         </is>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1962,10 +2210,15 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>34.1%</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
           <t>7.2680</t>
         </is>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1987,10 +2240,15 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>65.4%</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
           <t>7.2680</t>
         </is>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2012,10 +2270,15 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
           <t>7.2680</t>
         </is>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2037,10 +2300,15 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>53.0%</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
           <t>6.6027</t>
         </is>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2062,10 +2330,15 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>28.5%</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
           <t>6.6027</t>
         </is>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2077,12 +2350,13 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr">
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr">
         <is>
           <t>6.6027</t>
         </is>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2104,10 +2378,15 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
           <t>6.6027</t>
         </is>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2119,12 +2398,13 @@
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr">
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr">
         <is>
           <t>4.9947</t>
         </is>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,10 +2426,15 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
           <t>4.9947</t>
         </is>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2161,12 +2446,13 @@
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr">
+      <c r="D78" t="inlineStr"/>
+      <c r="E78" t="inlineStr">
         <is>
           <t>4.4979</t>
         </is>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2188,10 +2474,15 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>4.4979</t>
         </is>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2203,12 +2494,13 @@
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr">
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr">
         <is>
           <t>4.5273</t>
         </is>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2230,10 +2522,15 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>4.5273</t>
         </is>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2245,12 +2542,13 @@
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr">
+      <c r="D82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
         <is>
           <t>5.1201</t>
         </is>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2272,10 +2570,15 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
           <t>5.1201</t>
         </is>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2287,12 +2590,13 @@
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr">
+      <c r="D84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
         <is>
           <t>7.0126</t>
         </is>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2314,10 +2618,15 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>62.11%</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
           <t>5.8761</t>
         </is>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2339,10 +2648,15 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>19.09%</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
           <t>5.8761</t>
         </is>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2354,12 +2668,13 @@
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr">
+      <c r="D87" t="inlineStr"/>
+      <c r="E87" t="inlineStr">
         <is>
           <t>5.8761</t>
         </is>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2381,10 +2696,15 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>0.51%</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
           <t>5.8761</t>
         </is>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2406,10 +2726,15 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>61.70%</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
           <t>3.4206</t>
         </is>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2431,10 +2756,15 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>15.99%</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
           <t>3.4206</t>
         </is>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2446,12 +2776,13 @@
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="inlineStr"/>
-      <c r="D91" t="inlineStr">
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
         <is>
           <t>3.4206</t>
         </is>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2473,10 +2804,15 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>0.46%</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
           <t>3.4206</t>
         </is>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2488,12 +2824,13 @@
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
         <is>
           <t>5.4294</t>
         </is>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2505,12 +2842,13 @@
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
-      <c r="D94" t="inlineStr">
+      <c r="D94" t="inlineStr"/>
+      <c r="E94" t="inlineStr">
         <is>
           <t>5.3877</t>
         </is>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2532,10 +2870,15 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
           <t>5.3877</t>
         </is>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2547,12 +2890,13 @@
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
-      <c r="D96" t="inlineStr">
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
         <is>
           <t>4.8016</t>
         </is>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2574,10 +2918,15 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
           <t>4.8016</t>
         </is>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2589,12 +2938,13 @@
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr">
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
         <is>
           <t>4.4277</t>
         </is>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2616,10 +2966,15 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
           <t>4.4277</t>
         </is>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2631,12 +2986,13 @@
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr">
         <is>
           <t>5.1165</t>
         </is>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2658,10 +3014,15 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
           <t>5.1165</t>
         </is>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2673,12 +3034,13 @@
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
         <is>
           <t>4.5205</t>
         </is>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2700,10 +3062,15 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
           <t>4.5205</t>
         </is>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2725,10 +3092,15 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
+          <t>65.78%</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
           <t>4.2887</t>
         </is>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2750,10 +3122,15 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>19.21%</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
           <t>4.2887</t>
         </is>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2765,12 +3142,13 @@
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="inlineStr"/>
-      <c r="D106" t="inlineStr">
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
         <is>
           <t>4.2887</t>
         </is>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2792,10 +3170,15 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
+          <t>0.42%</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
           <t>4.2887</t>
         </is>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2817,10 +3200,15 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>61.9%</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
           <t>6.0611</t>
         </is>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2842,10 +3230,15 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
+          <t>20.7%</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
           <t>6.0611</t>
         </is>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2857,12 +3250,13 @@
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
-      <c r="D110" t="inlineStr">
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
         <is>
           <t>6.0611</t>
         </is>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2884,10 +3278,15 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
           <t>6.0611</t>
         </is>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2909,10 +3308,15 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
           <t>5.4244</t>
         </is>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2924,12 +3328,13 @@
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr">
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
         <is>
           <t>5.3877</t>
         </is>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2941,12 +3346,13 @@
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr">
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
         <is>
           <t>5.3877</t>
         </is>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2958,12 +3364,13 @@
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
-      <c r="D115" t="inlineStr">
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
         <is>
           <t>5.3877</t>
         </is>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2975,12 +3382,13 @@
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
-      <c r="D116" t="inlineStr">
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
         <is>
           <t>4.5431</t>
         </is>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,10 +3410,15 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
           <t>4.5431</t>
         </is>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3017,12 +3430,13 @@
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr">
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
         <is>
           <t>4.4419</t>
         </is>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3044,10 +3458,15 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
           <t>4.4419</t>
         </is>
       </c>
-      <c r="E119" t="n">
+      <c r="F119" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3059,12 +3478,13 @@
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr">
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
         <is>
           <t>5.3845</t>
         </is>
       </c>
-      <c r="E120" t="n">
+      <c r="F120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3086,10 +3506,15 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
           <t>5.3845</t>
         </is>
       </c>
-      <c r="E121" t="n">
+      <c r="F121" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3111,10 +3536,15 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
+          <t>31%</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
           <t>8.0096</t>
         </is>
       </c>
-      <c r="E122" t="n">
+      <c r="F122" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3136,10 +3566,15 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
           <t>8.0096</t>
         </is>
       </c>
-      <c r="E123" t="n">
+      <c r="F123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,12 +3586,13 @@
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
-      <c r="D124" t="inlineStr">
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr">
         <is>
           <t>7.1805</t>
         </is>
       </c>
-      <c r="E124" t="n">
+      <c r="F124" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3178,10 +3614,15 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
           <t>7.1805</t>
         </is>
       </c>
-      <c r="E125" t="n">
+      <c r="F125" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3203,10 +3644,15 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
+          <t>73.07%</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
           <t>4.4594</t>
         </is>
       </c>
-      <c r="E126" t="n">
+      <c r="F126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3228,10 +3674,15 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
+          <t>8.48%</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
           <t>4.4594</t>
         </is>
       </c>
-      <c r="E127" t="n">
+      <c r="F127" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3243,12 +3694,13 @@
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr">
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr">
         <is>
           <t>4.4594</t>
         </is>
       </c>
-      <c r="E128" t="n">
+      <c r="F128" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3270,10 +3722,15 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
+          <t>0.86%</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
           <t>4.4594</t>
         </is>
       </c>
-      <c r="E129" t="n">
+      <c r="F129" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3295,10 +3752,15 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
+          <t>70.60%</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
           <t>5.7112</t>
         </is>
       </c>
-      <c r="E130" t="n">
+      <c r="F130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3320,10 +3782,15 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
+          <t>12.19%</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
           <t>5.7112</t>
         </is>
       </c>
-      <c r="E131" t="n">
+      <c r="F131" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3335,12 +3802,13 @@
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
-      <c r="D132" t="inlineStr">
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr">
         <is>
           <t>5.7112</t>
         </is>
       </c>
-      <c r="E132" t="n">
+      <c r="F132" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3362,10 +3830,15 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
+          <t>0.40%</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
           <t>5.7112</t>
         </is>
       </c>
-      <c r="E133" t="n">
+      <c r="F133" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3377,12 +3850,13 @@
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr">
         <is>
           <t>7.0106</t>
         </is>
       </c>
-      <c r="E134" t="n">
+      <c r="F134" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3394,12 +3868,13 @@
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
-      <c r="D135" t="inlineStr">
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr">
         <is>
           <t>6.5850</t>
         </is>
       </c>
-      <c r="E135" t="n">
+      <c r="F135" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3421,10 +3896,15 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
           <t>6.5850</t>
         </is>
       </c>
-      <c r="E136" t="n">
+      <c r="F136" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3436,12 +3916,13 @@
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
-      <c r="D137" t="inlineStr">
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr">
         <is>
           <t>5.3813</t>
         </is>
       </c>
-      <c r="E137" t="n">
+      <c r="F137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3463,10 +3944,15 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
           <t>5.3813</t>
         </is>
       </c>
-      <c r="E138" t="n">
+      <c r="F138" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3478,12 +3964,13 @@
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
-      <c r="D139" t="inlineStr">
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr">
         <is>
           <t>4.4949</t>
         </is>
       </c>
-      <c r="E139" t="n">
+      <c r="F139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3505,10 +3992,15 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
           <t>4.4949</t>
         </is>
       </c>
-      <c r="E140" t="n">
+      <c r="F140" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3520,12 +4012,13 @@
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr">
         <is>
           <t>4.1132</t>
         </is>
       </c>
-      <c r="E141" t="n">
+      <c r="F141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3547,10 +4040,15 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
           <t>4.1132</t>
         </is>
       </c>
-      <c r="E142" t="n">
+      <c r="F142" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3562,12 +4060,13 @@
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr">
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr">
         <is>
           <t>4.4398</t>
         </is>
       </c>
-      <c r="E143" t="n">
+      <c r="F143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3589,10 +4088,15 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
           <t>4.4398</t>
         </is>
       </c>
-      <c r="E144" t="n">
+      <c r="F144" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3604,12 +4108,13 @@
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr">
         <is>
           <t>4.1461</t>
         </is>
       </c>
-      <c r="E145" t="n">
+      <c r="F145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3631,10 +4136,15 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
           <t>4.1461</t>
         </is>
       </c>
-      <c r="E146" t="n">
+      <c r="F146" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3646,12 +4156,13 @@
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr">
         <is>
           <t>7.2650</t>
         </is>
       </c>
-      <c r="E147" t="n">
+      <c r="F147" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3673,10 +4184,15 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
           <t>7.2650</t>
         </is>
       </c>
-      <c r="E148" t="n">
+      <c r="F148" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3698,10 +4214,15 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
           <t>7.5267</t>
         </is>
       </c>
-      <c r="E149" t="n">
+      <c r="F149" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3723,10 +4244,15 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
           <t>7.5267</t>
         </is>
       </c>
-      <c r="E150" t="n">
+      <c r="F150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3748,10 +4274,15 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
+          <t>74.07%</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
           <t>6.0078</t>
         </is>
       </c>
-      <c r="E151" t="n">
+      <c r="F151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,10 +4304,15 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
+          <t>7.22%</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
           <t>6.0078</t>
         </is>
       </c>
-      <c r="E152" t="n">
+      <c r="F152" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3788,12 +4324,13 @@
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr">
         <is>
           <t>6.0078</t>
         </is>
       </c>
-      <c r="E153" t="n">
+      <c r="F153" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3815,10 +4352,15 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
           <t>6.0078</t>
         </is>
       </c>
-      <c r="E154" t="n">
+      <c r="F154" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3830,12 +4372,13 @@
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr">
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr">
         <is>
           <t>6.9836</t>
         </is>
       </c>
-      <c r="E155" t="n">
+      <c r="F155" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3857,10 +4400,15 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
           <t>6.9836</t>
         </is>
       </c>
-      <c r="E156" t="n">
+      <c r="F156" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3872,12 +4420,13 @@
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr">
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr">
         <is>
           <t>5.6870</t>
         </is>
       </c>
-      <c r="E157" t="n">
+      <c r="F157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3899,10 +4448,15 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
           <t>5.6870</t>
         </is>
       </c>
-      <c r="E158" t="n">
+      <c r="F158" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3914,12 +4468,13 @@
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr">
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr">
         <is>
           <t>3.9559</t>
         </is>
       </c>
-      <c r="E159" t="n">
+      <c r="F159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3941,10 +4496,15 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
           <t>3.9559</t>
         </is>
       </c>
-      <c r="E160" t="n">
+      <c r="F160" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3956,12 +4516,13 @@
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr">
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr">
         <is>
           <t>4.4005</t>
         </is>
       </c>
-      <c r="E161" t="n">
+      <c r="F161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,10 +4544,15 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
           <t>4.4005</t>
         </is>
       </c>
-      <c r="E162" t="n">
+      <c r="F162" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3998,12 +4564,13 @@
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr">
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
         <is>
           <t>4.1579</t>
         </is>
       </c>
-      <c r="E163" t="n">
+      <c r="F163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4025,10 +4592,15 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
           <t>4.1579</t>
         </is>
       </c>
-      <c r="E164" t="n">
+      <c r="F164" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4040,12 +4612,13 @@
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr">
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
         <is>
           <t>4.1503</t>
         </is>
       </c>
-      <c r="E165" t="n">
+      <c r="F165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4067,10 +4640,15 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
           <t>4.1503</t>
         </is>
       </c>
-      <c r="E166" t="n">
+      <c r="F166" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4082,12 +4660,13 @@
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr">
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
         <is>
           <t>6.5732</t>
         </is>
       </c>
-      <c r="E167" t="n">
+      <c r="F167" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4109,10 +4688,15 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
+          <t>33%</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
           <t>6.5732</t>
         </is>
       </c>
-      <c r="E168" t="n">
+      <c r="F168" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4124,12 +4708,13 @@
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr">
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
         <is>
           <t>6.6513</t>
         </is>
       </c>
-      <c r="E169" t="n">
+      <c r="F169" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4151,10 +4736,15 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
           <t>6.6513</t>
         </is>
       </c>
-      <c r="E170" t="n">
+      <c r="F170" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4166,12 +4756,13 @@
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr">
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
         <is>
           <t>4.8977</t>
         </is>
       </c>
-      <c r="E171" t="n">
+      <c r="F171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,10 +4784,15 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
           <t>4.8977</t>
         </is>
       </c>
-      <c r="E172" t="n">
+      <c r="F172" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4208,12 +4804,13 @@
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr">
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
         <is>
           <t>4.8465</t>
         </is>
       </c>
-      <c r="E173" t="n">
+      <c r="F173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4235,10 +4832,15 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
           <t>4.8465</t>
         </is>
       </c>
-      <c r="E174" t="n">
+      <c r="F174" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4260,10 +4862,15 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
+          <t>49.3%</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
           <t>6.7099</t>
         </is>
       </c>
-      <c r="E175" t="n">
+      <c r="F175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4285,10 +4892,15 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
+          <t>31.0%</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
           <t>6.7099</t>
         </is>
       </c>
-      <c r="E176" t="n">
+      <c r="F176" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4300,12 +4912,13 @@
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr">
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr">
         <is>
           <t>6.7099</t>
         </is>
       </c>
-      <c r="E177" t="n">
+      <c r="F177" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4327,10 +4940,15 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
           <t>6.7099</t>
         </is>
       </c>
-      <c r="E178" t="n">
+      <c r="F178" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4352,10 +4970,15 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
+          <t>52.1%</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
           <t>7.0540</t>
         </is>
       </c>
-      <c r="E179" t="n">
+      <c r="F179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4377,10 +5000,15 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
+          <t>28.9%</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
           <t>7.0540</t>
         </is>
       </c>
-      <c r="E180" t="n">
+      <c r="F180" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4392,12 +5020,13 @@
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr">
+      <c r="D181" t="inlineStr"/>
+      <c r="E181" t="inlineStr">
         <is>
           <t>7.0540</t>
         </is>
       </c>
-      <c r="E181" t="n">
+      <c r="F181" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4419,10 +5048,15 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
           <t>7.0540</t>
         </is>
       </c>
-      <c r="E182" t="n">
+      <c r="F182" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4434,12 +5068,13 @@
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr">
+      <c r="D183" t="inlineStr"/>
+      <c r="E183" t="inlineStr">
         <is>
           <t>5.1290</t>
         </is>
       </c>
-      <c r="E183" t="n">
+      <c r="F183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4461,10 +5096,15 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
           <t>5.1290</t>
         </is>
       </c>
-      <c r="E184" t="n">
+      <c r="F184" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4476,12 +5116,13 @@
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr">
+      <c r="D185" t="inlineStr"/>
+      <c r="E185" t="inlineStr">
         <is>
           <t>5.1567</t>
         </is>
       </c>
-      <c r="E185" t="n">
+      <c r="F185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4503,10 +5144,15 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
           <t>5.1567</t>
         </is>
       </c>
-      <c r="E186" t="n">
+      <c r="F186" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4518,12 +5164,13 @@
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr">
+      <c r="D187" t="inlineStr"/>
+      <c r="E187" t="inlineStr">
         <is>
           <t>5.2877</t>
         </is>
       </c>
-      <c r="E187" t="n">
+      <c r="F187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4545,10 +5192,15 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
           <t>5.2877</t>
         </is>
       </c>
-      <c r="E188" t="n">
+      <c r="F188" t="n">
         <v>2</v>
       </c>
     </row>
@@ -4560,12 +5212,13 @@
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr">
+      <c r="D189" t="inlineStr"/>
+      <c r="E189" t="inlineStr">
         <is>
           <t>5.2939</t>
         </is>
       </c>
-      <c r="E189" t="n">
+      <c r="F189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4587,10 +5240,15 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
           <t>5.2939</t>
         </is>
       </c>
-      <c r="E190" t="n">
+      <c r="F190" t="n">
         <v>2</v>
       </c>
     </row>
